--- a/experiments/expbiblio/schéma dispositif.xlsx
+++ b/experiments/expbiblio/schéma dispositif.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,10 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:UU71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="CT27" sqref="CT27"/>
+      <selection sqref="A1:CL40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.6640625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3227,8 +3226,8 @@
     <row r="70" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="71" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
